--- a/model/results/experiment4/repeated/results.xlsx
+++ b/model/results/experiment4/repeated/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xav/Documents/UIUC/Summer/Project/results20230228/experiment4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xav/Downloads/results/experiment4/repeated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C39323DD-31A8-4E4C-9CE4-DA1E28B9FAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE5A662-C0B4-A049-B066-DE433546D205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{19EFE1A8-AE75-5E40-ABCE-FD64A2F84661}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="10">
   <si>
     <t>model</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>tree</t>
+  </si>
+  <si>
+    <t>auc</t>
   </si>
 </sst>
 </file>
@@ -423,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D91EF-2486-044C-AC85-A93085218D88}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,10 +451,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -459,19 +465,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.67816100000000001</v>
+        <v>0.42576000000000003</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.152476</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.73540099999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.58807699999999996</v>
+      </c>
+      <c r="G2">
+        <v>0.40010499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -479,19 +488,22 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.63095199999999996</v>
+        <v>0.33200200000000002</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.276389</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.71148199999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.52396900000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.341638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -499,19 +511,22 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.57692299999999996</v>
+        <v>0.33141399999999999</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.32721800000000001</v>
       </c>
       <c r="E4">
-        <v>0.29861100000000002</v>
+        <v>0.32721800000000001</v>
       </c>
       <c r="F4">
-        <v>0.72181899999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.53197300000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.344501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -519,19 +534,22 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.54022999999999999</v>
+        <v>0.33096999999999999</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.36949399999999999</v>
       </c>
       <c r="E5">
-        <v>0.32155800000000001</v>
+        <v>0.36949399999999999</v>
       </c>
       <c r="F5">
-        <v>0.67367500000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.53056300000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.34383599999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -539,19 +557,22 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.53398100000000004</v>
+        <v>0.33196700000000001</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.34513500000000003</v>
       </c>
       <c r="E6">
-        <v>0.330729</v>
+        <v>0.34513500000000003</v>
       </c>
       <c r="F6">
-        <v>0.61850000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.52751599999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.34281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -559,19 +580,22 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.52222199999999996</v>
+        <v>0.331895</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.31687700000000002</v>
       </c>
       <c r="E7">
-        <v>0.32558799999999999</v>
+        <v>0.31687700000000002</v>
       </c>
       <c r="F7">
-        <v>0.65622400000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.52055899999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.340387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -579,19 +603,22 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.48780499999999999</v>
+        <v>0.33103300000000002</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.33603899999999998</v>
       </c>
       <c r="E8">
-        <v>0.32638899999999998</v>
+        <v>0.33603899999999998</v>
       </c>
       <c r="F8">
-        <v>0.64467300000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.52436400000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.34151199999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -599,19 +626,22 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.33205699999999999</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.32102900000000001</v>
       </c>
       <c r="E9">
-        <v>0.33333299999999999</v>
+        <v>0.32102900000000001</v>
       </c>
       <c r="F9">
-        <v>0.617201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.51465499999999997</v>
+      </c>
+      <c r="G9">
+        <v>0.33840599999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -619,19 +649,22 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.33006999999999997</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.32085900000000001</v>
       </c>
       <c r="E10">
-        <v>0.32638899999999998</v>
+        <v>0.32085900000000001</v>
       </c>
       <c r="F10">
-        <v>0.63319499999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.52258499999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.340777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -639,19 +672,22 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.44085999999999997</v>
+        <v>0.332063</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.32652799999999998</v>
       </c>
       <c r="E11">
-        <v>0.33333299999999999</v>
+        <v>0.32652799999999998</v>
       </c>
       <c r="F11">
-        <v>0.50863000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.53723900000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.346551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -659,19 +695,22 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.41772199999999998</v>
+        <v>0.33204499999999998</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.32973799999999998</v>
       </c>
       <c r="E12">
-        <v>0.33333299999999999</v>
+        <v>0.32973799999999998</v>
       </c>
       <c r="F12">
-        <v>0.55622300000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.52477399999999996</v>
+      </c>
+      <c r="G12">
+        <v>0.34160400000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -679,19 +718,22 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.42352899999999999</v>
+        <v>0.33129900000000001</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.32066600000000001</v>
       </c>
       <c r="E13">
-        <v>0.32986100000000002</v>
+        <v>0.32066600000000001</v>
       </c>
       <c r="F13">
-        <v>0.58050100000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.51681900000000003</v>
+      </c>
+      <c r="G13">
+        <v>0.33878900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -699,19 +741,22 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.51898699999999998</v>
+        <v>0.33132499999999998</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.31560300000000002</v>
       </c>
       <c r="E14">
-        <v>0.32986100000000002</v>
+        <v>0.31560300000000002</v>
       </c>
       <c r="F14">
-        <v>0.64413399999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.52044800000000002</v>
+      </c>
+      <c r="G14">
+        <v>0.34010400000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -719,19 +764,22 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.56470600000000004</v>
+        <v>0.33203300000000002</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.30360999999999999</v>
       </c>
       <c r="E15">
-        <v>0.33333299999999999</v>
+        <v>0.30360999999999999</v>
       </c>
       <c r="F15">
-        <v>0.59907900000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.53103699999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.34444599999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -739,19 +787,22 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.67816100000000001</v>
+        <v>0.54347199999999996</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.61263999999999996</v>
       </c>
       <c r="E16">
-        <v>0.152476</v>
+        <v>0.37403999999999998</v>
       </c>
       <c r="F16">
-        <v>0.73540099999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.75574600000000003</v>
+      </c>
+      <c r="G16">
+        <v>0.62523399999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -759,19 +810,22 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>0.63095199999999996</v>
+        <v>0.52521499999999999</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.65965099999999999</v>
       </c>
       <c r="E17">
-        <v>0.276389</v>
+        <v>0.35278900000000002</v>
       </c>
       <c r="F17">
-        <v>0.71148199999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.74275000000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.59912200000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -779,19 +833,22 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.57692299999999996</v>
+        <v>0.51193599999999995</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.60448299999999999</v>
       </c>
       <c r="E18">
-        <v>0.29861100000000002</v>
+        <v>0.39244499999999999</v>
       </c>
       <c r="F18">
-        <v>0.72181899999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.72716000000000003</v>
+      </c>
+      <c r="G18">
+        <v>0.59428800000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -799,19 +856,22 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>0.54022999999999999</v>
+        <v>0.40933799999999998</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.42489100000000002</v>
       </c>
       <c r="E19">
-        <v>0.32155800000000001</v>
+        <v>0.214755</v>
       </c>
       <c r="F19">
-        <v>0.67367500000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.62822999999999996</v>
+      </c>
+      <c r="G19">
+        <v>0.45587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -819,19 +879,22 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>0.53398100000000004</v>
+        <v>0.43325999999999998</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.39635500000000001</v>
       </c>
       <c r="E20">
-        <v>0.330729</v>
+        <v>0.34300599999999998</v>
       </c>
       <c r="F20">
-        <v>0.61850000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.67892300000000005</v>
+      </c>
+      <c r="G20">
+        <v>0.51904300000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -839,19 +902,22 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>0.52222199999999996</v>
+        <v>0.411721</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.39766600000000002</v>
       </c>
       <c r="E21">
-        <v>0.32558799999999999</v>
+        <v>0.315747</v>
       </c>
       <c r="F21">
-        <v>0.65622400000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.64025500000000002</v>
+      </c>
+      <c r="G21">
+        <v>0.47277200000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -859,19 +925,22 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>0.48780499999999999</v>
+        <v>0.41055199999999997</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.416292</v>
       </c>
       <c r="E22">
-        <v>0.32638899999999998</v>
+        <v>0.338756</v>
       </c>
       <c r="F22">
-        <v>0.64467300000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.63386299999999995</v>
+      </c>
+      <c r="G22">
+        <v>0.45408900000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -879,19 +948,22 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.37759399999999999</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.38871299999999998</v>
       </c>
       <c r="E23">
-        <v>0.33333299999999999</v>
+        <v>0.33637600000000001</v>
       </c>
       <c r="F23">
-        <v>0.617201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.64121600000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.45522200000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -899,19 +971,22 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>0.374587</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.371282</v>
       </c>
       <c r="E24">
-        <v>0.32638899999999998</v>
+        <v>0.35388399999999998</v>
       </c>
       <c r="F24">
-        <v>0.63319499999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.65046099999999996</v>
+      </c>
+      <c r="G24">
+        <v>0.46593600000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -919,19 +994,22 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.44085999999999997</v>
+        <v>0.35460799999999998</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.35106900000000002</v>
       </c>
       <c r="E25">
-        <v>0.33333299999999999</v>
+        <v>0.34043800000000002</v>
       </c>
       <c r="F25">
-        <v>0.50863000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.61104599999999998</v>
+      </c>
+      <c r="G25">
+        <v>0.44154500000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -939,19 +1017,22 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>0.41772199999999998</v>
+        <v>0.382295</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.39089800000000002</v>
       </c>
       <c r="E26">
-        <v>0.33333299999999999</v>
+        <v>0.371085</v>
       </c>
       <c r="F26">
-        <v>0.55622300000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.64589099999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.45628099999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -959,19 +1040,22 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>0.42352899999999999</v>
+        <v>0.38902700000000001</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.42527999999999999</v>
       </c>
       <c r="E27">
-        <v>0.32986100000000002</v>
+        <v>0.41983100000000001</v>
       </c>
       <c r="F27">
-        <v>0.58050100000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.65327100000000005</v>
+      </c>
+      <c r="G27">
+        <v>0.48252099999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -979,19 +1063,22 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <v>0.51898699999999998</v>
+        <v>0.38073899999999999</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.36260999999999999</v>
       </c>
       <c r="E28">
-        <v>0.32986100000000002</v>
+        <v>0.35936499999999999</v>
       </c>
       <c r="F28">
-        <v>0.64413399999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.634656</v>
+      </c>
+      <c r="G28">
+        <v>0.44867800000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -999,19 +1086,22 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>0.56470600000000004</v>
+        <v>0.360481</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.333341</v>
       </c>
       <c r="E29">
-        <v>0.33333299999999999</v>
+        <v>0.33255699999999999</v>
       </c>
       <c r="F29">
-        <v>0.59907900000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.63820600000000005</v>
+      </c>
+      <c r="G29">
+        <v>0.48083799999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1019,19 +1109,22 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0.67816100000000001</v>
+        <v>0.7026</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.80981599999999998</v>
       </c>
       <c r="E30">
-        <v>0.152476</v>
+        <v>0.52997799999999995</v>
       </c>
       <c r="F30">
-        <v>0.73540099999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.87337799999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.79750900000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1039,19 +1132,22 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>0.63095199999999996</v>
+        <v>0.63807999999999998</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.68506400000000001</v>
       </c>
       <c r="E31">
-        <v>0.276389</v>
+        <v>0.56054899999999996</v>
       </c>
       <c r="F31">
-        <v>0.71148199999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.833256</v>
+      </c>
+      <c r="G31">
+        <v>0.73619500000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1059,19 +1155,22 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>0.57692299999999996</v>
+        <v>0.57664300000000002</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.58262899999999995</v>
       </c>
       <c r="E32">
-        <v>0.29861100000000002</v>
+        <v>0.52437599999999995</v>
       </c>
       <c r="F32">
-        <v>0.72181899999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.773285</v>
+      </c>
+      <c r="G32">
+        <v>0.64184600000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1079,19 +1178,22 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>0.54022999999999999</v>
+        <v>0.56001000000000001</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.59843500000000005</v>
       </c>
       <c r="E33">
-        <v>0.32155800000000001</v>
+        <v>0.56899200000000005</v>
       </c>
       <c r="F33">
-        <v>0.67367500000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.78378000000000003</v>
+      </c>
+      <c r="G33">
+        <v>0.64677200000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1099,19 +1201,22 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>0.53398100000000004</v>
+        <v>0.526111</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.53689600000000004</v>
       </c>
       <c r="E34">
-        <v>0.330729</v>
+        <v>0.52072700000000005</v>
       </c>
       <c r="F34">
-        <v>0.61850000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.76775599999999999</v>
+      </c>
+      <c r="G34">
+        <v>0.61493299999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1119,19 +1224,22 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>0.52222199999999996</v>
+        <v>0.50246100000000005</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.48777700000000002</v>
       </c>
       <c r="E35">
-        <v>0.32558799999999999</v>
+        <v>0.47341</v>
       </c>
       <c r="F35">
-        <v>0.65622400000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.75466100000000003</v>
+      </c>
+      <c r="G35">
+        <v>0.58807100000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1139,19 +1247,22 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>0.48780499999999999</v>
+        <v>0.49914399999999998</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.505915</v>
       </c>
       <c r="E36">
-        <v>0.32638899999999998</v>
+        <v>0.49505100000000002</v>
       </c>
       <c r="F36">
-        <v>0.64467300000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.75488500000000003</v>
+      </c>
+      <c r="G36">
+        <v>0.59066600000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1159,19 +1270,22 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>0.5</v>
+        <v>0.47640399999999999</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.47096900000000003</v>
       </c>
       <c r="E37">
-        <v>0.33333299999999999</v>
+        <v>0.46074599999999999</v>
       </c>
       <c r="F37">
-        <v>0.617201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.75303100000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.59291000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1179,19 +1293,22 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>0.5</v>
+        <v>0.48920400000000003</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.49824600000000002</v>
       </c>
       <c r="E38">
-        <v>0.32638899999999998</v>
+        <v>0.49499700000000002</v>
       </c>
       <c r="F38">
-        <v>0.63319499999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.750668</v>
+      </c>
+      <c r="G38">
+        <v>0.58384100000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1199,19 +1316,22 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>0.44085999999999997</v>
+        <v>0.481572</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.48317399999999999</v>
       </c>
       <c r="E39">
-        <v>0.33333299999999999</v>
+        <v>0.479995</v>
       </c>
       <c r="F39">
-        <v>0.50863000000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.74393500000000001</v>
+      </c>
+      <c r="G39">
+        <v>0.57464000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1219,19 +1339,22 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>0.41772199999999998</v>
+        <v>0.48152299999999998</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.46720899999999999</v>
       </c>
       <c r="E40">
-        <v>0.33333299999999999</v>
+        <v>0.46204499999999998</v>
       </c>
       <c r="F40">
-        <v>0.55622300000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.74039900000000003</v>
+      </c>
+      <c r="G40">
+        <v>0.56189299999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1239,19 +1362,22 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>0.42352899999999999</v>
+        <v>0.47298000000000001</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.50075099999999995</v>
       </c>
       <c r="E41">
-        <v>0.32986100000000002</v>
+        <v>0.49581599999999998</v>
       </c>
       <c r="F41">
-        <v>0.58050100000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.74911499999999998</v>
+      </c>
+      <c r="G41">
+        <v>0.59059300000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1259,19 +1385,22 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>0.51898699999999998</v>
+        <v>0.46444600000000003</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.447324</v>
       </c>
       <c r="E42">
-        <v>0.32986100000000002</v>
+        <v>0.44428600000000001</v>
       </c>
       <c r="F42">
-        <v>0.64413399999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.73132200000000003</v>
+      </c>
+      <c r="G42">
+        <v>0.563222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1279,16 +1408,19 @@
         <v>14</v>
       </c>
       <c r="C43">
-        <v>0.56470600000000004</v>
+        <v>0.477632</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.45009700000000002</v>
       </c>
       <c r="E43">
-        <v>0.33333299999999999</v>
+        <v>0.45009700000000002</v>
       </c>
       <c r="F43">
-        <v>0.59907900000000003</v>
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="G43">
+        <v>0.57522899999999999</v>
       </c>
     </row>
   </sheetData>
